--- a/data/trans_bre/P25A_2_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,01</t>
+          <t>-5,63; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,6</t>
+          <t>-5,14; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,44</t>
+          <t>-1,57; 4,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 11,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 352,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 230,21</t>
+          <t>-2,13; 9,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 371,46</t>
+          <t>-64,48; 199,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 219,69</t>
+          <t>-60,64; 108,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-46,6; 356,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-36,65; 452,0</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>178,64%</t>
+          <t>-75,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,08%</t>
+          <t>-31,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>238,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,25</t>
+          <t>-3,4; -0,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,45</t>
+          <t>-1,7; 0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,89</t>
+          <t>0,22; 6,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,44; 58,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 293,72</t>
+          <t>-2,28; 2,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 981,09</t>
+          <t>-100,0; 152,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,94; 77,88</t>
+          <t>-85,1; 140,85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1370,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-58,18; 186,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-89,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,63%</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>-68,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>349,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-60,38%</t>
         </is>
       </c>
     </row>
@@ -868,22 +1000,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -0,15</t>
+          <t>-2,36; 0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,9</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,33</t>
+          <t>-0,84; 1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 31,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 738,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-85,66; 644,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>103,01%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>213,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,26%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,04</t>
+          <t>-2,86; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,77</t>
+          <t>-0,03; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 8,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 73,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 145,26</t>
+          <t>-4,11; 3,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 280,52</t>
+          <t>-80,62; 360,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 115,13</t>
+          <t>-40,4; 1841,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-66,0; 108,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,29%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>117,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 2,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-56,08; 75,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-25,5; 137,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 357,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-32,53; 87,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_2_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,13%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>74,01%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>74,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.04769527421396302</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4646899306047211</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.994715006786739</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>4.04516031249647</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.008080079617677764</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.08319742212956277</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8083493401814144</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.8637122600904362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 6,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 3,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 4,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 9,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-64,48; 199,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; 108,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-46,6; 356,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-36,65; 452,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.357573606677771</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.964338683846874</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.144702708014648</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-1.855095418302</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6456158419139971</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6029918264082214</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4559712982384874</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.3210614407884237</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.165011803402993</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.48418727807057</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.956432739124418</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>10.43254478783468</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.129179053478817</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.088465938355931</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.643207537694483</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>5.0285744489638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-75,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-31,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>238,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; -0,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 0,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 6,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 2,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 152,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-85,1; 140,85</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 1370,62</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-58,18; 186,06</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.198598927321198</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2270981320761478</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.544314362610606</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.2390571480330089</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.7431092086999761</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2004638479312673</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.213860396690761</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.09459527750094571</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-68,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>349,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-60,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.072732714230958</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.406709245825955</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1810646769719587</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-2.205417781478369</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8279547591173069</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.04497553030183329</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.5851025312890534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 0,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 0,58</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-85,66; 644,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.03370345864894259</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9737354964753795</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.353863975462943</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>2.327768882347302</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.555462812800764</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.883514020559741</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>12.70499862822058</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>1.784940223066356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,222 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>213,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-13,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5828030322974461</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6647102803080618</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.065572984719698</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.4157045612381844</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6726398424142611</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>3.034789246184792</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.09451244044524125</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.5871449421582766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 5,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 3,42</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-80,62; 360,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-40,4; 1841,37</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-66,0; 108,25</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.181744422118387</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.04079627784360321</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8467883610626576</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-1.413080741526402</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.8553375371193366</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5305921526005104</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.907727760398413</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.2539088266181</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.5886702539818217</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>6.516390262125919</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-8,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>41,52%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>117,79%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 1,02</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 1,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 2,04</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-56,08; 75,83</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-25,5; 137,85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>11,16; 357,87</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-32,53; 87,06</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.6311104427567967</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1224257706883582</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.251297580027648</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>1.100949760926886</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3091314448544505</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.07042639143872095</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.168967665486511</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.4790724371816722</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.977085136350774</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.027758977171621</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2844815720374734</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.6776638131545847</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7098739304882732</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4539385399324575</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.106062594829392</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.2482149098151849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5838764598889397</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.219154074102494</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.783409413709087</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>2.843791354262468</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5540784528256543</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.045507328298059</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.587938814225391</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.71022752588056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
